--- a/biology/Zoologie/Dimophora/Dimophora.xlsx
+++ b/biology/Zoologie/Dimophora/Dimophora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dimophora est un genre d'insecte hyménoptère de la famille Ichneumonidae et de la sous-famille Ophioninae.
 </t>
@@ -511,13 +523,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Dimophora est décrit par Arnold Förster en 1869[1].
-Le genre Dimophorus est décrit par Carl Gustaf Thomson en 1889[2].
-Le genre Demophorus est décrit par Carl Gustaf Thomson en 1890[3] et classé dans la sous-famille des Ophioninae par Nicolas Théobald en 1937[4],[3] et confirmé dans la famille des Ichneumonidae par Frank Morton Carpenter (d) en 1992[5],[3].
-Synonyme
-Pour GBIF les genres Demophorus et Dimophorus sont des synonymes du genre Dimophora Förster, 1869[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Dimophora est décrit par Arnold Förster en 1869.
+Le genre Dimophorus est décrit par Carl Gustaf Thomson en 1889.
+Le genre Demophorus est décrit par Carl Gustaf Thomson en 1890 et classé dans la sous-famille des Ophioninae par Nicolas Théobald en 1937, et confirmé dans la famille des Ichneumonidae par Frank Morton Carpenter (d) en 1992,.
 </t>
         </is>
       </c>
@@ -543,12 +555,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour GBIF les genres Demophorus et Dimophorus sont des synonymes du genre Dimophora Förster, 1869.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dimophora</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dimophora</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2023 GBIF référence les vingt espèces suivantes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2023 GBIF référence les vingt espèces suivantes :
 †Dimophora antiqua (Brues, 1910) avec un synonyme ; ≡Demophorus antiquus Brues, 1910
 Dimophora biquadra Klopfstein, 2015
 Dimophora capillata Dasch, 1979
@@ -573,38 +624,40 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Dimophora</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Dimophora</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database en 2023, le nombre d'espèces fossiles Demophorus référencées est de deux[3] :
-†Demophorus antiquus Brues, 1910[6]
-†Demophorus fumipennis, Théobald 1937[7],[3]
-Selon Paleobiology Database en 2023, le nombre d'espèces fossiles Dimophora référencées est de deux[8] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, le nombre d'espèces fossiles Demophorus référencées est de deux :
+†Demophorus antiquus Brues, 1910
+†Demophorus fumipennis, Théobald 1937,
+Selon Paleobiology Database en 2023, le nombre d'espèces fossiles Dimophora référencées est de deux :
 †Dimophora longicornis Théobald, 1937 avec un synonyme Nemeritis longicornis
-†Dimophora wickhami Cockerell, 1919 avec un synonyme Theronia wickhami[8].</t>
+†Dimophora wickhami Cockerell, 1919 avec un synonyme Theronia wickhami.</t>
         </is>
       </c>
     </row>
